--- a/CourseCardSystem/HomeFieldConfig.xlsx
+++ b/CourseCardSystem/HomeFieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB73232-A98C-D441-BB19-11AC176C6755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD562A-1E1D-0E41-96A3-BBB54A30E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-19680" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{E1352B4C-410F-D743-BF9D-6A73ECF8AC28}"/>
+    <workbookView xWindow="-2840" yWindow="-21600" windowWidth="19040" windowHeight="21600" activeTab="2" xr2:uid="{E1352B4C-410F-D743-BF9D-6A73ECF8AC28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2549,9 +2549,6 @@
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>74</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CourseCardSystem/HomeFieldConfig.xlsx
+++ b/CourseCardSystem/HomeFieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD562A-1E1D-0E41-96A3-BBB54A30E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D13992-1EB1-AC43-B921-69E326B1E50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21600" windowWidth="19040" windowHeight="21600" activeTab="2" xr2:uid="{E1352B4C-410F-D743-BF9D-6A73ECF8AC28}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{E1352B4C-410F-D743-BF9D-6A73ECF8AC28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -491,6 +488,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836962A8-C97A-4B4D-815E-9CB1BB7343E5}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD256"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -983,89 +983,89 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="H17" s="7" t="s">
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="H17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="O17" s="7" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="9"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="H18" s="10" t="s">
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="H18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-      <c r="O18" s="10" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+      <c r="O18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="12"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="14"/>
-      <c r="H19" s="13" t="s">
+      <c r="F19" s="13"/>
+      <c r="H19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="14"/>
-      <c r="O19" s="13" t="s">
+      <c r="M19" s="13"/>
+      <c r="O19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="14"/>
+      <c r="T19" s="13"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2">
@@ -1080,61 +1080,61 @@
       <c r="E20" s="2">
         <v>19.989999999999998</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>29.99</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="14"/>
-      <c r="O20" s="13" t="s">
+      <c r="M20" s="13"/>
+      <c r="O20" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="14"/>
+      <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20" ht="17" thickBot="1">
-      <c r="A21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="16">
+      <c r="A21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="15">
         <v>208001</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>208002</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>208004</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>208004</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>208005</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="17"/>
-      <c r="O21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="17"/>
+      <c r="H21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="O21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="17" thickBot="1">
       <c r="A24" t="s">
@@ -1142,134 +1142,134 @@
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="H25" s="7" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="O25" s="7" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="9"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="H26" s="10" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="H26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
-      <c r="O26" s="10" t="s">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="O26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="12"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="14"/>
-      <c r="H27" s="13" t="s">
+      <c r="F27" s="13"/>
+      <c r="H27" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="14"/>
-      <c r="O27" s="13" t="s">
+      <c r="M27" s="13"/>
+      <c r="O27" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="14"/>
+      <c r="T27" s="13"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="14"/>
-      <c r="H28" s="13" t="s">
+      <c r="F28" s="13"/>
+      <c r="H28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="14"/>
-      <c r="O28" s="13" t="s">
+      <c r="M28" s="13"/>
+      <c r="O28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="14"/>
+      <c r="T28" s="13"/>
     </row>
     <row r="29" spans="1:20" ht="17" thickBot="1">
-      <c r="A29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="H29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="O29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="17"/>
+      <c r="A29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="H29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="O29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1490,14 +1490,14 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -1825,12 +1825,12 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
@@ -2024,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2700BD1-47B0-B34B-A7F1-2047CBE69819}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2149,13 +2149,13 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">

--- a/CourseCardSystem/HomeFieldConfig.xlsx
+++ b/CourseCardSystem/HomeFieldConfig.xlsx
@@ -475,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -500,6 +500,9 @@
     <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3453,8 +3456,8 @@
       <c r="F33" s="2">
         <v>1.0</v>
       </c>
-      <c r="G33" s="2">
-        <v>2.0</v>
+      <c r="G33" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H33" s="2">
         <v>0.0</v>
@@ -3512,8 +3515,8 @@
       <c r="F34" s="2">
         <v>1.0</v>
       </c>
-      <c r="G34" s="2">
-        <v>2.0</v>
+      <c r="G34" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H34" s="2">
         <v>0.0</v>
@@ -3571,8 +3574,8 @@
       <c r="F35" s="2">
         <v>1.0</v>
       </c>
-      <c r="G35" s="2">
-        <v>2.0</v>
+      <c r="G35" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H35" s="2">
         <v>0.0</v>
@@ -3630,8 +3633,8 @@
       <c r="F36" s="2">
         <v>1.0</v>
       </c>
-      <c r="G36" s="2">
-        <v>2.0</v>
+      <c r="G36" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H36" s="2">
         <v>0.0</v>
@@ -3689,8 +3692,8 @@
       <c r="F37" s="2">
         <v>1.0</v>
       </c>
-      <c r="G37" s="2">
-        <v>2.0</v>
+      <c r="G37" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H37" s="2">
         <v>0.0</v>
@@ -3748,8 +3751,8 @@
       <c r="F38" s="2">
         <v>1.0</v>
       </c>
-      <c r="G38" s="2">
-        <v>2.0</v>
+      <c r="G38" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H38" s="2">
         <v>0.0</v>
@@ -3807,8 +3810,8 @@
       <c r="F39" s="2">
         <v>1.0</v>
       </c>
-      <c r="G39" s="2">
-        <v>2.0</v>
+      <c r="G39" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H39" s="2">
         <v>0.0</v>
@@ -3866,8 +3869,8 @@
       <c r="F40" s="2">
         <v>1.0</v>
       </c>
-      <c r="G40" s="2">
-        <v>2.0</v>
+      <c r="G40" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H40" s="2">
         <v>0.0</v>
@@ -3925,8 +3928,8 @@
       <c r="F41" s="2">
         <v>1.0</v>
       </c>
-      <c r="G41" s="2">
-        <v>2.0</v>
+      <c r="G41" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H41" s="2">
         <v>0.0</v>
@@ -3984,8 +3987,8 @@
       <c r="F42" s="2">
         <v>1.0</v>
       </c>
-      <c r="G42" s="2">
-        <v>2.0</v>
+      <c r="G42" s="22">
+        <v>1003.0</v>
       </c>
       <c r="H42" s="2">
         <v>0.0</v>
@@ -4043,8 +4046,8 @@
       <c r="F43" s="2">
         <v>1.0</v>
       </c>
-      <c r="G43" s="2">
-        <v>3.0</v>
+      <c r="G43" s="22">
+        <v>2.0</v>
       </c>
       <c r="H43" s="2">
         <v>0.0</v>
@@ -4102,8 +4105,8 @@
       <c r="F44" s="2">
         <v>1.0</v>
       </c>
-      <c r="G44" s="2">
-        <v>3.0</v>
+      <c r="G44" s="22">
+        <v>2.0</v>
       </c>
       <c r="H44" s="2">
         <v>0.0</v>
@@ -4161,8 +4164,8 @@
       <c r="F45" s="2">
         <v>1.0</v>
       </c>
-      <c r="G45" s="2">
-        <v>3.0</v>
+      <c r="G45" s="22">
+        <v>2.0</v>
       </c>
       <c r="H45" s="2">
         <v>0.0</v>
@@ -4220,8 +4223,8 @@
       <c r="F46" s="2">
         <v>1.0</v>
       </c>
-      <c r="G46" s="2">
-        <v>3.0</v>
+      <c r="G46" s="22">
+        <v>2.0</v>
       </c>
       <c r="H46" s="2">
         <v>0.0</v>
@@ -4279,8 +4282,8 @@
       <c r="F47" s="2">
         <v>1.0</v>
       </c>
-      <c r="G47" s="2">
-        <v>3.0</v>
+      <c r="G47" s="22">
+        <v>2.0</v>
       </c>
       <c r="H47" s="2">
         <v>0.0</v>
@@ -4338,8 +4341,8 @@
       <c r="F48" s="2">
         <v>1.0</v>
       </c>
-      <c r="G48" s="2">
-        <v>3.0</v>
+      <c r="G48" s="22">
+        <v>2.0</v>
       </c>
       <c r="H48" s="2">
         <v>0.0</v>
@@ -4397,8 +4400,8 @@
       <c r="F49" s="2">
         <v>1.0</v>
       </c>
-      <c r="G49" s="2">
-        <v>3.0</v>
+      <c r="G49" s="22">
+        <v>2.0</v>
       </c>
       <c r="H49" s="2">
         <v>0.0</v>
@@ -4456,8 +4459,8 @@
       <c r="F50" s="2">
         <v>1.0</v>
       </c>
-      <c r="G50" s="2">
-        <v>3.0</v>
+      <c r="G50" s="22">
+        <v>2.0</v>
       </c>
       <c r="H50" s="2">
         <v>0.0</v>
@@ -4515,8 +4518,8 @@
       <c r="F51" s="2">
         <v>1.0</v>
       </c>
-      <c r="G51" s="2">
-        <v>3.0</v>
+      <c r="G51" s="22">
+        <v>2.0</v>
       </c>
       <c r="H51" s="2">
         <v>0.0</v>
@@ -4574,8 +4577,8 @@
       <c r="F52" s="2">
         <v>1.0</v>
       </c>
-      <c r="G52" s="2">
-        <v>3.0</v>
+      <c r="G52" s="22">
+        <v>2.0</v>
       </c>
       <c r="H52" s="2">
         <v>0.0</v>
@@ -4633,8 +4636,8 @@
       <c r="F53" s="2">
         <v>1.0</v>
       </c>
-      <c r="G53" s="2">
-        <v>4.0</v>
+      <c r="G53" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H53" s="2">
         <v>0.0</v>
@@ -4692,8 +4695,8 @@
       <c r="F54" s="2">
         <v>1.0</v>
       </c>
-      <c r="G54" s="2">
-        <v>4.0</v>
+      <c r="G54" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H54" s="2">
         <v>0.0</v>
@@ -4751,8 +4754,8 @@
       <c r="F55" s="2">
         <v>1.0</v>
       </c>
-      <c r="G55" s="2">
-        <v>4.0</v>
+      <c r="G55" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H55" s="2">
         <v>0.0</v>
@@ -4810,8 +4813,8 @@
       <c r="F56" s="2">
         <v>1.0</v>
       </c>
-      <c r="G56" s="2">
-        <v>4.0</v>
+      <c r="G56" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H56" s="2">
         <v>0.0</v>
@@ -4869,8 +4872,8 @@
       <c r="F57" s="2">
         <v>1.0</v>
       </c>
-      <c r="G57" s="2">
-        <v>4.0</v>
+      <c r="G57" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H57" s="2">
         <v>0.0</v>
@@ -4928,8 +4931,8 @@
       <c r="F58" s="2">
         <v>1.0</v>
       </c>
-      <c r="G58" s="2">
-        <v>4.0</v>
+      <c r="G58" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H58" s="2">
         <v>0.0</v>
@@ -4987,8 +4990,8 @@
       <c r="F59" s="2">
         <v>1.0</v>
       </c>
-      <c r="G59" s="2">
-        <v>4.0</v>
+      <c r="G59" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H59" s="2">
         <v>0.0</v>
@@ -5046,8 +5049,8 @@
       <c r="F60" s="2">
         <v>1.0</v>
       </c>
-      <c r="G60" s="2">
-        <v>4.0</v>
+      <c r="G60" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H60" s="2">
         <v>0.0</v>
@@ -5105,8 +5108,8 @@
       <c r="F61" s="2">
         <v>1.0</v>
       </c>
-      <c r="G61" s="2">
-        <v>4.0</v>
+      <c r="G61" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H61" s="2">
         <v>0.0</v>
@@ -5164,8 +5167,8 @@
       <c r="F62" s="2">
         <v>1.0</v>
       </c>
-      <c r="G62" s="2">
-        <v>4.0</v>
+      <c r="G62" s="22">
+        <v>1005.0</v>
       </c>
       <c r="H62" s="2">
         <v>0.0</v>
@@ -5486,7 +5489,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1"/>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="22" t="s">
+      <c r="C132" s="23" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6695,13 +6698,13 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -6764,19 +6767,19 @@
       <c r="W14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" s="24" t="s">
+      <c r="Y14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" s="24" t="s">
+      <c r="Z14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="24" t="s">
+      <c r="AA14" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AB14" s="24" t="s">
+      <c r="AB14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AC14" s="24" t="s">
+      <c r="AC14" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6841,11 +6844,11 @@
       <c r="W15" s="18">
         <v>0.0</v>
       </c>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
@@ -6908,11 +6911,11 @@
       <c r="W16" s="18">
         <v>0.0</v>
       </c>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
@@ -6975,11 +6978,11 @@
       <c r="W17" s="18">
         <v>0.0</v>
       </c>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
@@ -7042,11 +7045,11 @@
       <c r="W18" s="18">
         <v>0.0</v>
       </c>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
@@ -7109,11 +7112,11 @@
       <c r="W19" s="18">
         <v>0.0</v>
       </c>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
@@ -7166,11 +7169,11 @@
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
@@ -7223,11 +7226,11 @@
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
@@ -7280,11 +7283,11 @@
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
@@ -7337,11 +7340,11 @@
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
@@ -7394,11 +7397,11 @@
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="M25" s="17"/>
@@ -7411,11 +7414,11 @@
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="M26" s="17"/>
@@ -7428,11 +7431,11 @@
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="M27" s="17"/>
@@ -7445,11 +7448,11 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="M28" s="17"/>
@@ -7462,11 +7465,11 @@
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="M29" s="17"/>
@@ -7479,11 +7482,11 @@
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="M30" s="17"/>
@@ -7496,11 +7499,11 @@
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
       <c r="W30" s="18"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="M31" s="17"/>
@@ -7513,11 +7516,11 @@
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="M32" s="17"/>
@@ -7530,11 +7533,11 @@
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="M33" s="17"/>
@@ -7547,11 +7550,11 @@
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="M34" s="17"/>
@@ -7564,11 +7567,11 @@
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
       <c r="W34" s="18"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="M35" s="17"/>
@@ -7581,11 +7584,11 @@
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="M36" s="17"/>
@@ -7598,11 +7601,11 @@
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="M37" s="17"/>
@@ -7615,11 +7618,11 @@
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="M38" s="17"/>
@@ -7632,11 +7635,11 @@
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="M39" s="17"/>
@@ -7649,11 +7652,11 @@
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="M40" s="17"/>
@@ -7666,11 +7669,11 @@
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="M41" s="17"/>
@@ -7683,11 +7686,11 @@
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
       <c r="W41" s="18"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="24"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="M42" s="17"/>
@@ -7700,11 +7703,11 @@
       <c r="U42" s="18"/>
       <c r="V42" s="18"/>
       <c r="W42" s="18"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="M43" s="17"/>
@@ -7717,11 +7720,11 @@
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="24"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="M44" s="17"/>
@@ -7734,11 +7737,11 @@
       <c r="U44" s="18"/>
       <c r="V44" s="18"/>
       <c r="W44" s="18"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="24"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="24"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="M45" s="17"/>
@@ -7751,11 +7754,11 @@
       <c r="U45" s="18"/>
       <c r="V45" s="18"/>
       <c r="W45" s="18"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="M46" s="17"/>
@@ -7768,11 +7771,11 @@
       <c r="U46" s="18"/>
       <c r="V46" s="18"/>
       <c r="W46" s="18"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="M47" s="17"/>
@@ -7785,11 +7788,11 @@
       <c r="U47" s="18"/>
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="M48" s="17"/>
@@ -7802,11 +7805,11 @@
       <c r="U48" s="18"/>
       <c r="V48" s="18"/>
       <c r="W48" s="18"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
     </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1">

--- a/CourseCardSystem/HomeFieldConfig.xlsx
+++ b/CourseCardSystem/HomeFieldConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -118,7 +118,7 @@
     <t>//辅助用</t>
   </si>
   <si>
-    <t xml:space="preserve">// level </t>
+    <t>// level  chapter内的索引</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>chapter 4</t>
+  </si>
+  <si>
+    <t>chapter 5</t>
+  </si>
+  <si>
+    <t>chapter 6</t>
+  </si>
+  <si>
+    <t>chapter 7</t>
+  </si>
+  <si>
+    <t>chapter 8</t>
   </si>
   <si>
     <t>process_rewards</t>
@@ -272,7 +284,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-m-d h:mm"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -291,6 +306,11 @@
       <sz val="9.0"/>
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF0A0101"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -475,14 +495,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -498,15 +524,20 @@
     <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -888,15 +919,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1.6472232E9</v>
-      </c>
+        <v>1.615778064E9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>1.6472664E9</v>
+        <v>1.6477056E9</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -905,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>1.6472232E9</v>
+        <v>1.615778064E9</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -913,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>1.6472664E9</v>
+        <v>1.6477056E9</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
@@ -972,158 +1005,158 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="H17" s="5" t="s">
+      <c r="B17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="O17" s="5" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="O17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="8" t="s">
+      <c r="B18" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="H18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="O18" s="8" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="O18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="H19" s="11" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
-      <c r="O19" s="11" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="O19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="13"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>1.99</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="14">
         <v>4.99</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="14">
         <v>9.99</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="14">
         <v>19.99</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="15">
         <v>29.99</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="O20" s="11" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="O20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="17">
         <v>208001.0</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="17">
         <v>208002.0</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="17">
         <v>208004.0</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="17">
         <v>208004.0</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="18">
         <v>208005.0</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="O21" s="14" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="O21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1133,158 +1166,158 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="H25" s="5" t="s">
+      <c r="B25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
-      <c r="O25" s="5" t="s">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+      <c r="O25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="7"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="8" t="s">
+      <c r="B26" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="O26" s="8" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
+      <c r="O26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="H27" s="11" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="H27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="O27" s="11" t="s">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="O27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="13"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="15"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="14">
         <v>1.99</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="14">
         <v>4.99</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="14">
         <v>9.99</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="14">
         <v>19.99</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="15">
         <v>29.99</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
-      <c r="O28" s="11" t="s">
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="O28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="15"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="17">
         <v>208001.0</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="17">
         <v>208002.0</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="17">
         <v>208004.0</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="17">
         <v>208004.0</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="18">
         <v>208006.0</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-      <c r="O29" s="14" t="s">
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="O29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="16"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -2466,7 +2499,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="30" width="10.56"/>
+    <col customWidth="1" min="1" max="9" width="10.56"/>
+    <col customWidth="1" min="10" max="10" width="13.22"/>
+    <col customWidth="1" min="11" max="11" width="10.56"/>
+    <col customWidth="1" min="12" max="12" width="11.33"/>
+    <col customWidth="1" min="13" max="30" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2608,17 +2645,17 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>420.0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1">
@@ -2639,109 +2676,109 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="14">
         <v>2.0</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>100.0</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>900.0</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>2.0</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="14">
         <v>2.0</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="14">
         <v>10.0</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -2762,16 +2799,16 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="22" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="2"/>
@@ -2779,29 +2816,29 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="17"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
+      <c r="M21" s="19"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2822,45 +2859,45 @@
       <c r="K22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="V22" s="21" t="s">
+      <c r="V22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="W22" s="21" t="s">
+      <c r="W22" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="C23" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="21">
         <v>1.0</v>
       </c>
       <c r="F23" s="2">
@@ -2881,45 +2918,45 @@
       <c r="K23" s="2">
         <v>0.0</v>
       </c>
-      <c r="L23" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="R23" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S23" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T23" s="21">
+      <c r="L23" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="R23" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T23" s="24">
         <v>100.0</v>
       </c>
-      <c r="U23" s="21">
+      <c r="U23" s="24">
         <v>2.0</v>
       </c>
-      <c r="V23" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W23" s="21">
+      <c r="V23" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="20">
         <v>2.0</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="20">
         <v>2.0</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="21">
         <v>2.0</v>
       </c>
       <c r="F24" s="2">
@@ -2940,45 +2977,45 @@
       <c r="K24" s="2">
         <v>0.0</v>
       </c>
-      <c r="L24" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="17">
+      <c r="L24" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M24" s="19">
         <v>2.0</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="24">
         <v>5.0</v>
       </c>
-      <c r="R24" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S24" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T24" s="21">
+      <c r="R24" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T24" s="24">
         <v>100.0</v>
       </c>
-      <c r="U24" s="21">
+      <c r="U24" s="24">
         <v>2.0</v>
       </c>
-      <c r="V24" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W24" s="21">
+      <c r="V24" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="18">
+      <c r="A25" s="20">
         <v>3.0</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="20">
         <v>3.0</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="21">
         <v>3.0</v>
       </c>
       <c r="F25" s="2">
@@ -2999,45 +3036,45 @@
       <c r="K25" s="2">
         <v>0.0</v>
       </c>
-      <c r="L25" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M25" s="17">
+      <c r="L25" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M25" s="19">
         <v>3.0</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="24">
         <v>10.0</v>
       </c>
-      <c r="R25" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S25" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T25" s="21">
+      <c r="R25" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T25" s="24">
         <v>100.0</v>
       </c>
-      <c r="U25" s="21">
+      <c r="U25" s="24">
         <v>2.0</v>
       </c>
-      <c r="V25" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W25" s="21">
+      <c r="V25" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="18">
+      <c r="A26" s="20">
         <v>4.0</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="20">
         <v>4.0</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="21">
         <v>4.0</v>
       </c>
       <c r="F26" s="2">
@@ -3058,45 +3095,45 @@
       <c r="K26" s="2">
         <v>0.0</v>
       </c>
-      <c r="L26" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M26" s="17">
+      <c r="L26" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M26" s="19">
         <v>4.0</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="24">
         <v>15.0</v>
       </c>
-      <c r="R26" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S26" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T26" s="21">
+      <c r="R26" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S26" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T26" s="24">
         <v>200.0</v>
       </c>
-      <c r="U26" s="21">
+      <c r="U26" s="24">
         <v>2.0</v>
       </c>
-      <c r="V26" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W26" s="21">
+      <c r="V26" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="18">
+      <c r="A27" s="20">
         <v>5.0</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="20">
         <v>5.0</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="21">
         <v>5.0</v>
       </c>
       <c r="F27" s="2">
@@ -3117,45 +3154,45 @@
       <c r="K27" s="2">
         <v>0.0</v>
       </c>
-      <c r="L27" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="17">
+      <c r="L27" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M27" s="19">
         <v>5.0</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="24">
         <v>20.0</v>
       </c>
-      <c r="R27" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S27" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T27" s="21">
+      <c r="R27" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="24">
         <v>100.0</v>
       </c>
-      <c r="U27" s="21">
+      <c r="U27" s="24">
         <v>2.0</v>
       </c>
-      <c r="V27" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W27" s="21">
+      <c r="V27" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="18">
+      <c r="A28" s="20">
         <v>6.0</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="20">
         <v>6.0</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="21">
         <v>6.0</v>
       </c>
       <c r="F28" s="2">
@@ -3176,45 +3213,45 @@
       <c r="K28" s="2">
         <v>0.0</v>
       </c>
-      <c r="L28" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M28" s="17">
+      <c r="L28" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M28" s="19">
         <v>6.0</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="24">
         <v>25.0</v>
       </c>
-      <c r="R28" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S28" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T28" s="21">
+      <c r="R28" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T28" s="24">
         <v>100.0</v>
       </c>
-      <c r="U28" s="21">
+      <c r="U28" s="24">
         <v>2.0</v>
       </c>
-      <c r="V28" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W28" s="21">
+      <c r="V28" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="18">
+      <c r="A29" s="20">
         <v>7.0</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="20">
         <v>7.0</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="21">
         <v>7.0</v>
       </c>
       <c r="F29" s="2">
@@ -3235,45 +3272,45 @@
       <c r="K29" s="2">
         <v>0.0</v>
       </c>
-      <c r="L29" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M29" s="17">
+      <c r="L29" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M29" s="19">
         <v>7.0</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="24">
         <v>30.0</v>
       </c>
-      <c r="R29" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S29" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T29" s="21">
+      <c r="R29" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S29" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T29" s="24">
         <v>100.0</v>
       </c>
-      <c r="U29" s="21">
+      <c r="U29" s="24">
         <v>2.0</v>
       </c>
-      <c r="V29" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W29" s="21">
+      <c r="V29" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="18">
+      <c r="A30" s="20">
         <v>8.0</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="20">
         <v>8.0</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="21">
         <v>8.0</v>
       </c>
       <c r="F30" s="2">
@@ -3294,45 +3331,45 @@
       <c r="K30" s="2">
         <v>0.0</v>
       </c>
-      <c r="L30" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M30" s="17">
+      <c r="L30" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M30" s="19">
         <v>8.0</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="24">
         <v>35.0</v>
       </c>
-      <c r="R30" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S30" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T30" s="21">
+      <c r="R30" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S30" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T30" s="24">
         <v>200.0</v>
       </c>
-      <c r="U30" s="21">
+      <c r="U30" s="24">
         <v>2.0</v>
       </c>
-      <c r="V30" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W30" s="21">
+      <c r="V30" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="18">
+      <c r="A31" s="20">
         <v>9.0</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="20">
         <v>9.0</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="21">
         <v>9.0</v>
       </c>
       <c r="F31" s="2">
@@ -3353,45 +3390,45 @@
       <c r="K31" s="2">
         <v>0.0</v>
       </c>
-      <c r="L31" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M31" s="17">
+      <c r="L31" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M31" s="19">
         <v>9.0</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="24">
         <v>40.0</v>
       </c>
-      <c r="R31" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S31" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T31" s="21">
+      <c r="R31" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T31" s="24">
         <v>100.0</v>
       </c>
-      <c r="U31" s="21">
+      <c r="U31" s="24">
         <v>2.0</v>
       </c>
-      <c r="V31" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W31" s="21">
+      <c r="V31" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="18">
+      <c r="A32" s="20">
         <v>10.0</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="20">
         <v>10.0</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="21">
         <v>10.0</v>
       </c>
       <c r="F32" s="2">
@@ -3412,52 +3449,52 @@
       <c r="K32" s="2">
         <v>0.0</v>
       </c>
-      <c r="L32" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M32" s="17">
+      <c r="L32" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M32" s="19">
         <v>10.0</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="24">
         <v>45.0</v>
       </c>
-      <c r="R32" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S32" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T32" s="21">
+      <c r="R32" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S32" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T32" s="24">
         <v>100.0</v>
       </c>
-      <c r="U32" s="21">
+      <c r="U32" s="24">
         <v>2.0</v>
       </c>
-      <c r="V32" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W32" s="21">
+      <c r="V32" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="18">
+      <c r="A33" s="20">
         <v>11.0</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="20">
         <v>11.0</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="21">
         <v>11.0</v>
       </c>
       <c r="F33" s="2">
         <v>1.0</v>
       </c>
       <c r="G33" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H33" s="2">
         <v>0.0</v>
@@ -3471,52 +3508,52 @@
       <c r="K33" s="2">
         <v>0.0</v>
       </c>
-      <c r="L33" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M33" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="Q33" s="21">
+      <c r="L33" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M33" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Q33" s="24">
         <v>50.0</v>
       </c>
-      <c r="R33" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S33" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T33" s="21">
+      <c r="R33" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S33" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T33" s="24">
         <v>100.0</v>
       </c>
-      <c r="U33" s="21">
+      <c r="U33" s="24">
         <v>2.0</v>
       </c>
-      <c r="V33" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W33" s="21">
+      <c r="V33" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="20">
         <v>12.0</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="20">
         <v>12.0</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="21">
         <v>12.0</v>
       </c>
       <c r="F34" s="2">
         <v>1.0</v>
       </c>
       <c r="G34" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H34" s="2">
         <v>0.0</v>
@@ -3530,52 +3567,52 @@
       <c r="K34" s="2">
         <v>0.0</v>
       </c>
-      <c r="L34" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M34" s="17">
+      <c r="L34" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M34" s="19">
         <v>2.0</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="24">
         <v>55.0</v>
       </c>
-      <c r="R34" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S34" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T34" s="21">
+      <c r="R34" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S34" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T34" s="24">
         <v>200.0</v>
       </c>
-      <c r="U34" s="21">
+      <c r="U34" s="24">
         <v>2.0</v>
       </c>
-      <c r="V34" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W34" s="21">
+      <c r="V34" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="18">
+      <c r="A35" s="20">
         <v>13.0</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="20">
         <v>13.0</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="21">
         <v>13.0</v>
       </c>
       <c r="F35" s="2">
         <v>1.0</v>
       </c>
       <c r="G35" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H35" s="2">
         <v>0.0</v>
@@ -3589,52 +3626,52 @@
       <c r="K35" s="2">
         <v>0.0</v>
       </c>
-      <c r="L35" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M35" s="17">
+      <c r="L35" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M35" s="19">
         <v>3.0</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="24">
         <v>60.0</v>
       </c>
-      <c r="R35" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S35" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T35" s="21">
+      <c r="R35" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S35" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T35" s="24">
         <v>100.0</v>
       </c>
-      <c r="U35" s="21">
+      <c r="U35" s="24">
         <v>2.0</v>
       </c>
-      <c r="V35" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W35" s="21">
+      <c r="V35" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W35" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="18">
+      <c r="A36" s="20">
         <v>14.0</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="20">
         <v>14.0</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="21">
         <v>14.0</v>
       </c>
       <c r="F36" s="2">
         <v>1.0</v>
       </c>
       <c r="G36" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H36" s="2">
         <v>0.0</v>
@@ -3648,52 +3685,52 @@
       <c r="K36" s="2">
         <v>0.0</v>
       </c>
-      <c r="L36" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M36" s="17">
+      <c r="L36" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M36" s="19">
         <v>4.0</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="24">
         <v>65.0</v>
       </c>
-      <c r="R36" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S36" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T36" s="21">
+      <c r="R36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T36" s="24">
         <v>100.0</v>
       </c>
-      <c r="U36" s="21">
+      <c r="U36" s="24">
         <v>2.0</v>
       </c>
-      <c r="V36" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W36" s="21">
+      <c r="V36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="18">
+      <c r="A37" s="20">
         <v>15.0</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="20">
         <v>15.0</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="21">
         <v>15.0</v>
       </c>
       <c r="F37" s="2">
         <v>1.0</v>
       </c>
       <c r="G37" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H37" s="2">
         <v>0.0</v>
@@ -3707,52 +3744,52 @@
       <c r="K37" s="2">
         <v>0.0</v>
       </c>
-      <c r="L37" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M37" s="17">
+      <c r="L37" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M37" s="19">
         <v>5.0</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37" s="24">
         <v>70.0</v>
       </c>
-      <c r="R37" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S37" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T37" s="21">
+      <c r="R37" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S37" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T37" s="24">
         <v>100.0</v>
       </c>
-      <c r="U37" s="21">
+      <c r="U37" s="24">
         <v>2.0</v>
       </c>
-      <c r="V37" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W37" s="21">
+      <c r="V37" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="18">
+      <c r="A38" s="20">
         <v>16.0</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="20">
         <v>16.0</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="21">
         <v>16.0</v>
       </c>
       <c r="F38" s="2">
         <v>1.0</v>
       </c>
       <c r="G38" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H38" s="2">
         <v>0.0</v>
@@ -3766,52 +3803,52 @@
       <c r="K38" s="2">
         <v>0.0</v>
       </c>
-      <c r="L38" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M38" s="17">
+      <c r="L38" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M38" s="19">
         <v>6.0</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="24">
         <v>75.0</v>
       </c>
-      <c r="R38" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S38" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T38" s="21">
+      <c r="R38" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S38" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T38" s="24">
         <v>200.0</v>
       </c>
-      <c r="U38" s="21">
+      <c r="U38" s="24">
         <v>2.0</v>
       </c>
-      <c r="V38" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W38" s="21">
+      <c r="V38" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W38" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="18">
+      <c r="A39" s="20">
         <v>17.0</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="20">
         <v>17.0</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="21">
         <v>17.0</v>
       </c>
       <c r="F39" s="2">
         <v>1.0</v>
       </c>
       <c r="G39" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" s="2">
         <v>0.0</v>
@@ -3825,52 +3862,52 @@
       <c r="K39" s="2">
         <v>0.0</v>
       </c>
-      <c r="L39" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M39" s="17">
+      <c r="L39" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M39" s="19">
         <v>7.0</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39" s="24">
         <v>80.0</v>
       </c>
-      <c r="R39" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S39" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T39" s="21">
+      <c r="R39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T39" s="24">
         <v>100.0</v>
       </c>
-      <c r="U39" s="21">
+      <c r="U39" s="24">
         <v>2.0</v>
       </c>
-      <c r="V39" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W39" s="21">
+      <c r="V39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W39" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="18">
+      <c r="A40" s="20">
         <v>18.0</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="20">
         <v>18.0</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="21">
         <v>18.0</v>
       </c>
       <c r="F40" s="2">
         <v>1.0</v>
       </c>
       <c r="G40" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" s="2">
         <v>0.0</v>
@@ -3884,52 +3921,52 @@
       <c r="K40" s="2">
         <v>0.0</v>
       </c>
-      <c r="L40" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M40" s="17">
+      <c r="L40" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M40" s="19">
         <v>8.0</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Q40" s="24">
         <v>85.0</v>
       </c>
-      <c r="R40" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S40" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T40" s="21">
+      <c r="R40" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S40" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T40" s="24">
         <v>100.0</v>
       </c>
-      <c r="U40" s="21">
+      <c r="U40" s="24">
         <v>2.0</v>
       </c>
-      <c r="V40" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W40" s="21">
+      <c r="V40" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W40" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="18">
+      <c r="A41" s="20">
         <v>19.0</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="20">
         <v>19.0</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="21">
         <v>19.0</v>
       </c>
       <c r="F41" s="2">
         <v>1.0</v>
       </c>
       <c r="G41" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" s="2">
         <v>0.0</v>
@@ -3943,52 +3980,52 @@
       <c r="K41" s="2">
         <v>0.0</v>
       </c>
-      <c r="L41" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M41" s="17">
+      <c r="L41" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M41" s="19">
         <v>9.0</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41" s="24">
         <v>90.0</v>
       </c>
-      <c r="R41" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S41" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T41" s="21">
+      <c r="R41" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S41" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T41" s="24">
         <v>100.0</v>
       </c>
-      <c r="U41" s="21">
+      <c r="U41" s="24">
         <v>2.0</v>
       </c>
-      <c r="V41" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W41" s="21">
+      <c r="V41" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W41" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="18">
+      <c r="A42" s="20">
         <v>20.0</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="20">
         <v>20.0</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="21">
         <v>20.0</v>
       </c>
       <c r="F42" s="2">
         <v>1.0</v>
       </c>
       <c r="G42" s="22">
-        <v>1003.0</v>
+        <v>2.0</v>
       </c>
       <c r="H42" s="2">
         <v>0.0</v>
@@ -4002,1431 +4039,2835 @@
       <c r="K42" s="2">
         <v>0.0</v>
       </c>
-      <c r="L42" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M42" s="17">
+      <c r="L42" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M42" s="19">
         <v>10.0</v>
       </c>
-      <c r="Q42" s="21">
+      <c r="Q42" s="24">
         <v>95.0</v>
       </c>
-      <c r="R42" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S42" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T42" s="21">
+      <c r="R42" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S42" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T42" s="24">
         <v>200.0</v>
       </c>
-      <c r="U42" s="21">
+      <c r="U42" s="24">
         <v>2.0</v>
       </c>
-      <c r="V42" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W42" s="21">
+      <c r="V42" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W42" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="18">
+      <c r="A43" s="20">
         <v>21.0</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="20">
         <v>21.0</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="21">
         <v>21.0</v>
       </c>
       <c r="F43" s="2">
         <v>1.0</v>
       </c>
       <c r="G43" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M43" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Q43" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="R43" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S43" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T43" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U43" s="24">
         <v>2.0</v>
       </c>
-      <c r="H43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M43" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="Q43" s="21">
+      <c r="V43" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W43" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="20">
+        <v>22.0</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="20">
+        <v>22.0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>22.0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G44" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M44" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="Q44" s="24">
+        <v>105.0</v>
+      </c>
+      <c r="R44" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S44" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T44" s="24">
         <v>100.0</v>
       </c>
-      <c r="R43" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S43" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T43" s="21">
+      <c r="U44" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V44" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W44" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="E45" s="21">
+        <v>23.0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M45" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>110.0</v>
+      </c>
+      <c r="R45" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S45" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T45" s="24">
         <v>100.0</v>
       </c>
-      <c r="U43" s="21">
+      <c r="U45" s="24">
         <v>2.0</v>
       </c>
-      <c r="V43" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W43" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="18">
-        <v>22.0</v>
-      </c>
-      <c r="B44" s="18" t="s">
+      <c r="V45" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W45" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="18">
-        <v>22.0</v>
-      </c>
-      <c r="E44" s="19">
-        <v>22.0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G44" s="22">
+      <c r="C46" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="E46" s="21">
+        <v>24.0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M46" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>115.0</v>
+      </c>
+      <c r="R46" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S46" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T46" s="24">
+        <v>200.0</v>
+      </c>
+      <c r="U46" s="24">
         <v>2.0</v>
       </c>
-      <c r="H44" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L44" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M44" s="17">
+      <c r="V46" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="E47" s="21">
+        <v>25.0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M47" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>120.0</v>
+      </c>
+      <c r="R47" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S47" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T47" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U47" s="24">
         <v>2.0</v>
       </c>
-      <c r="Q44" s="21">
-        <v>105.0</v>
-      </c>
-      <c r="R44" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S44" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T44" s="21">
+      <c r="V47" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="E48" s="21">
+        <v>26.0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M48" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>125.0</v>
+      </c>
+      <c r="R48" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S48" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T48" s="24">
         <v>100.0</v>
       </c>
-      <c r="U44" s="21">
+      <c r="U48" s="24">
         <v>2.0</v>
       </c>
-      <c r="V44" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W44" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="18">
-        <v>23.0</v>
-      </c>
-      <c r="B45" s="18" t="s">
+      <c r="V48" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W48" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="20">
+        <v>27.0</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="18">
-        <v>23.0</v>
-      </c>
-      <c r="E45" s="19">
-        <v>23.0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G45" s="22">
+      <c r="C49" s="20">
+        <v>27.0</v>
+      </c>
+      <c r="E49" s="21">
+        <v>27.0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M49" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>130.0</v>
+      </c>
+      <c r="R49" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S49" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T49" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U49" s="24">
         <v>2.0</v>
       </c>
-      <c r="H45" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L45" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M45" s="17">
+      <c r="V49" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W49" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="E50" s="21">
+        <v>28.0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="22">
         <v>3.0</v>
       </c>
-      <c r="Q45" s="21">
-        <v>110.0</v>
-      </c>
-      <c r="R45" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S45" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T45" s="21">
+      <c r="H50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M50" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="Q50" s="24">
+        <v>135.0</v>
+      </c>
+      <c r="R50" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S50" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T50" s="24">
+        <v>200.0</v>
+      </c>
+      <c r="U50" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V50" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W50" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="20">
+        <v>29.0</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="20">
+        <v>29.0</v>
+      </c>
+      <c r="E51" s="21">
+        <v>29.0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M51" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>140.0</v>
+      </c>
+      <c r="R51" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S51" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T51" s="24">
         <v>100.0</v>
       </c>
-      <c r="U45" s="21">
+      <c r="U51" s="24">
         <v>2.0</v>
       </c>
-      <c r="V45" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W45" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="18">
-        <v>24.0</v>
-      </c>
-      <c r="B46" s="18" t="s">
+      <c r="V51" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="18">
-        <v>24.0</v>
-      </c>
-      <c r="E46" s="19">
-        <v>24.0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G46" s="22">
+      <c r="C52" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="E52" s="21">
+        <v>30.0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M52" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="Q52" s="24">
+        <v>145.0</v>
+      </c>
+      <c r="R52" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S52" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T52" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U52" s="24">
         <v>2.0</v>
       </c>
-      <c r="H46" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L46" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M46" s="17">
+      <c r="V52" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="20">
+        <v>31.0</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="20">
+        <v>31.0</v>
+      </c>
+      <c r="E53" s="21">
+        <v>31.0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G53" s="22">
         <v>4.0</v>
       </c>
-      <c r="Q46" s="21">
-        <v>115.0</v>
-      </c>
-      <c r="R46" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S46" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T46" s="21">
+      <c r="H53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M53" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Q53" s="24">
+        <v>150.0</v>
+      </c>
+      <c r="R53" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S53" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T53" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U53" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V53" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W53" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="20">
+        <v>32.0</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="20">
+        <v>32.0</v>
+      </c>
+      <c r="E54" s="21">
+        <v>32.0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M54" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>155.0</v>
+      </c>
+      <c r="R54" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S54" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T54" s="24">
         <v>200.0</v>
       </c>
-      <c r="U46" s="21">
+      <c r="U54" s="24">
         <v>2.0</v>
       </c>
-      <c r="V46" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W46" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="18">
-        <v>25.0</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="18">
-        <v>25.0</v>
-      </c>
-      <c r="E47" s="19">
-        <v>25.0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G47" s="22">
+      <c r="V54" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="20">
+        <v>33.0</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="20">
+        <v>33.0</v>
+      </c>
+      <c r="E55" s="21">
+        <v>33.0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M55" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>160.0</v>
+      </c>
+      <c r="R55" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S55" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T55" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U55" s="24">
         <v>2.0</v>
       </c>
-      <c r="H47" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L47" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M47" s="17">
+      <c r="V55" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="20">
+        <v>34.0</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="20">
+        <v>34.0</v>
+      </c>
+      <c r="E56" s="21">
+        <v>34.0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M56" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="Q56" s="24">
+        <v>165.0</v>
+      </c>
+      <c r="R56" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S56" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T56" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U56" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V56" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="20">
+        <v>35.0</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="20">
+        <v>35.0</v>
+      </c>
+      <c r="E57" s="21">
+        <v>35.0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G57" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M57" s="19">
         <v>5.0</v>
       </c>
-      <c r="Q47" s="21">
-        <v>120.0</v>
-      </c>
-      <c r="R47" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S47" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T47" s="21">
+      <c r="Q57" s="24">
+        <v>170.0</v>
+      </c>
+      <c r="R57" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S57" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T57" s="24">
         <v>100.0</v>
       </c>
-      <c r="U47" s="21">
+      <c r="U57" s="24">
         <v>2.0</v>
       </c>
-      <c r="V47" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W47" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="18">
-        <v>26.0</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="18">
-        <v>26.0</v>
-      </c>
-      <c r="E48" s="19">
-        <v>26.0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G48" s="22">
+      <c r="V57" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="20">
+        <v>36.0</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="20">
+        <v>36.0</v>
+      </c>
+      <c r="E58" s="21">
+        <v>36.0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M58" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="Q58" s="24">
+        <v>175.0</v>
+      </c>
+      <c r="R58" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S58" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T58" s="24">
+        <v>200.0</v>
+      </c>
+      <c r="U58" s="24">
         <v>2.0</v>
       </c>
-      <c r="H48" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L48" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M48" s="17">
+      <c r="V58" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="20">
+        <v>37.0</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="20">
+        <v>37.0</v>
+      </c>
+      <c r="E59" s="21">
+        <v>37.0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G59" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M59" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="Q59" s="24">
+        <v>180.0</v>
+      </c>
+      <c r="R59" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S59" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T59" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U59" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V59" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="20">
+        <v>38.0</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="20">
+        <v>38.0</v>
+      </c>
+      <c r="E60" s="21">
+        <v>38.0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G60" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M60" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="Q60" s="24">
+        <v>185.0</v>
+      </c>
+      <c r="R60" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S60" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T60" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U60" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V60" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="20">
+        <v>39.0</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="20">
+        <v>39.0</v>
+      </c>
+      <c r="E61" s="21">
+        <v>39.0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G61" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M61" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="Q61" s="24">
+        <v>190.0</v>
+      </c>
+      <c r="R61" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S61" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T61" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U61" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V61" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="E62" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G62" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M62" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>195.0</v>
+      </c>
+      <c r="R62" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S62" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T62" s="24">
+        <v>200.0</v>
+      </c>
+      <c r="U62" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V62" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="20">
+        <v>41.0</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="20">
+        <v>41.0</v>
+      </c>
+      <c r="E63" s="21">
+        <v>41.0</v>
+      </c>
+      <c r="F63" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G63" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M63" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Q63" s="24">
+        <v>200.0</v>
+      </c>
+      <c r="R63" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S63" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T63" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U63" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V63" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="20">
+        <v>42.0</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="20">
+        <v>42.0</v>
+      </c>
+      <c r="E64" s="21">
+        <v>42.0</v>
+      </c>
+      <c r="F64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G64" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M64" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="Q64" s="24">
+        <v>205.0</v>
+      </c>
+      <c r="R64" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S64" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T64" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U64" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V64" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="20">
+        <v>43.0</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="20">
+        <v>43.0</v>
+      </c>
+      <c r="E65" s="21">
+        <v>43.0</v>
+      </c>
+      <c r="F65" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G65" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M65" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="Q65" s="24">
+        <v>210.0</v>
+      </c>
+      <c r="R65" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="S65" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T65" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="U65" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V65" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="20">
+        <v>44.0</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="20">
+        <v>44.0</v>
+      </c>
+      <c r="E66" s="21">
+        <v>44.0</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G66" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M66" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="Q66" s="24">
+        <v>215.0</v>
+      </c>
+      <c r="R66" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="S66" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="T66" s="24">
+        <v>200.0</v>
+      </c>
+      <c r="U66" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V66" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="20">
+        <v>45.0</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="20">
+        <v>45.0</v>
+      </c>
+      <c r="E67" s="21">
+        <v>45.0</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G67" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M67" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="20">
+        <v>46.0</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="20">
+        <v>46.0</v>
+      </c>
+      <c r="E68" s="21">
+        <v>46.0</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G68" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M68" s="19">
         <v>6.0</v>
       </c>
-      <c r="Q48" s="21">
-        <v>125.0</v>
-      </c>
-      <c r="R48" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S48" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T48" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U48" s="21">
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c r="A69" s="20">
+        <v>47.0</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="20">
+        <v>47.0</v>
+      </c>
+      <c r="E69" s="21">
+        <v>47.0</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G69" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M69" s="19">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="20">
+        <v>48.0</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="20">
+        <v>48.0</v>
+      </c>
+      <c r="E70" s="21">
+        <v>48.0</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G70" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M70" s="19">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="20">
+        <v>49.0</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="20">
+        <v>49.0</v>
+      </c>
+      <c r="E71" s="21">
+        <v>49.0</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G71" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M71" s="19">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="E72" s="21">
+        <v>50.0</v>
+      </c>
+      <c r="F72" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M72" s="19">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="20">
+        <v>51.0</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="20">
+        <v>51.0</v>
+      </c>
+      <c r="E73" s="21">
+        <v>51.0</v>
+      </c>
+      <c r="F73" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G73" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M73" s="19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="20">
+        <v>52.0</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="20">
+        <v>52.0</v>
+      </c>
+      <c r="E74" s="21">
+        <v>52.0</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G74" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L74" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M74" s="19">
         <v>2.0</v>
       </c>
-      <c r="V48" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W48" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="18">
-        <v>27.0</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="18">
-        <v>27.0</v>
-      </c>
-      <c r="E49" s="19">
-        <v>27.0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G49" s="22">
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="20">
+        <v>53.0</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="20">
+        <v>53.0</v>
+      </c>
+      <c r="E75" s="21">
+        <v>53.0</v>
+      </c>
+      <c r="F75" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G75" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L75" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M75" s="19">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="20">
+        <v>54.0</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="20">
+        <v>54.0</v>
+      </c>
+      <c r="E76" s="21">
+        <v>54.0</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G76" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M76" s="19">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="20">
+        <v>55.0</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="20">
+        <v>55.0</v>
+      </c>
+      <c r="E77" s="21">
+        <v>55.0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M77" s="19">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="20">
+        <v>56.0</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="20">
+        <v>56.0</v>
+      </c>
+      <c r="E78" s="21">
+        <v>56.0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L78" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M78" s="19">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="20">
+        <v>57.0</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="20">
+        <v>57.0</v>
+      </c>
+      <c r="E79" s="21">
+        <v>57.0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L79" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M79" s="19">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="20">
+        <v>58.0</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="20">
+        <v>58.0</v>
+      </c>
+      <c r="E80" s="21">
+        <v>58.0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L80" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M80" s="19">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="20">
+        <v>59.0</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="20">
+        <v>59.0</v>
+      </c>
+      <c r="E81" s="21">
+        <v>59.0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L81" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M81" s="19">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="20">
+        <v>60.0</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="20">
+        <v>60.0</v>
+      </c>
+      <c r="E82" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L82" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M82" s="19">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="20">
+        <v>61.0</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="20">
+        <v>61.0</v>
+      </c>
+      <c r="E83" s="21">
+        <v>61.0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L83" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M83" s="19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="20">
+        <v>62.0</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="20">
+        <v>62.0</v>
+      </c>
+      <c r="E84" s="21">
+        <v>62.0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L84" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M84" s="19">
         <v>2.0</v>
       </c>
-      <c r="H49" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L49" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M49" s="17">
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="20">
+        <v>63.0</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="20">
+        <v>63.0</v>
+      </c>
+      <c r="E85" s="21">
+        <v>63.0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G85" s="22">
         <v>7.0</v>
       </c>
-      <c r="Q49" s="21">
-        <v>130.0</v>
-      </c>
-      <c r="R49" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S49" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T49" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U49" s="21">
+      <c r="H85" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L85" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M85" s="19">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="20">
+        <v>64.0</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="20">
+        <v>64.0</v>
+      </c>
+      <c r="E86" s="21">
+        <v>64.0</v>
+      </c>
+      <c r="F86" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G86" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L86" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M86" s="19">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="20">
+        <v>65.0</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="20">
+        <v>65.0</v>
+      </c>
+      <c r="E87" s="21">
+        <v>65.0</v>
+      </c>
+      <c r="F87" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G87" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L87" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M87" s="19">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="20">
+        <v>66.0</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="20">
+        <v>66.0</v>
+      </c>
+      <c r="E88" s="21">
+        <v>66.0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L88" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M88" s="19">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="20">
+        <v>67.0</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="20">
+        <v>67.0</v>
+      </c>
+      <c r="E89" s="21">
+        <v>67.0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L89" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M89" s="19">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="20">
+        <v>68.0</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="20">
+        <v>68.0</v>
+      </c>
+      <c r="E90" s="21">
+        <v>68.0</v>
+      </c>
+      <c r="F90" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G90" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L90" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M90" s="19">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="20">
+        <v>69.0</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="20">
+        <v>69.0</v>
+      </c>
+      <c r="E91" s="21">
+        <v>69.0</v>
+      </c>
+      <c r="F91" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G91" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L91" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M91" s="19">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="20">
+        <v>70.0</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="20">
+        <v>70.0</v>
+      </c>
+      <c r="E92" s="21">
+        <v>70.0</v>
+      </c>
+      <c r="F92" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G92" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L92" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M92" s="19">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="20">
+        <v>71.0</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="20">
+        <v>71.0</v>
+      </c>
+      <c r="E93" s="21">
+        <v>71.0</v>
+      </c>
+      <c r="F93" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G93" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L93" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M93" s="19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="20">
+        <v>72.0</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="20">
+        <v>72.0</v>
+      </c>
+      <c r="E94" s="21">
+        <v>72.0</v>
+      </c>
+      <c r="F94" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G94" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L94" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M94" s="19">
         <v>2.0</v>
       </c>
-      <c r="V49" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W49" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="18">
-        <v>28.0</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="18">
-        <v>28.0</v>
-      </c>
-      <c r="E50" s="19">
-        <v>28.0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L50" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M50" s="17">
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="20">
+        <v>73.0</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="20">
+        <v>73.0</v>
+      </c>
+      <c r="E95" s="21">
+        <v>73.0</v>
+      </c>
+      <c r="F95" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G95" s="22">
         <v>8.0</v>
       </c>
-      <c r="Q50" s="21">
-        <v>135.0</v>
-      </c>
-      <c r="R50" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S50" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T50" s="21">
-        <v>200.0</v>
-      </c>
-      <c r="U50" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V50" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W50" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="18">
-        <v>29.0</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="18">
-        <v>29.0</v>
-      </c>
-      <c r="E51" s="19">
-        <v>29.0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G51" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L51" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M51" s="17">
+      <c r="H95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L95" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M95" s="19">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="20">
+        <v>74.0</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="20">
+        <v>74.0</v>
+      </c>
+      <c r="E96" s="21">
+        <v>74.0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L96" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M96" s="19">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="20">
+        <v>75.0</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="20">
+        <v>75.0</v>
+      </c>
+      <c r="E97" s="21">
+        <v>75.0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L97" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M97" s="19">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="20">
+        <v>76.0</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="20">
+        <v>76.0</v>
+      </c>
+      <c r="E98" s="21">
+        <v>76.0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K98" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L98" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M98" s="19">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="20">
+        <v>77.0</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="20">
+        <v>77.0</v>
+      </c>
+      <c r="E99" s="21">
+        <v>77.0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K99" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L99" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M99" s="19">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="20">
+        <v>78.0</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="20">
+        <v>78.0</v>
+      </c>
+      <c r="E100" s="21">
+        <v>78.0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L100" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M100" s="19">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="20">
+        <v>79.0</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="20">
+        <v>79.0</v>
+      </c>
+      <c r="E101" s="21">
+        <v>79.0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L101" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M101" s="19">
         <v>9.0</v>
       </c>
-      <c r="Q51" s="21">
-        <v>140.0</v>
-      </c>
-      <c r="R51" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S51" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T51" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U51" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V51" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W51" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="18">
-        <v>30.0</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="18">
-        <v>30.0</v>
-      </c>
-      <c r="E52" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G52" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L52" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M52" s="17">
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="20">
+        <v>80.0</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="20">
+        <v>80.0</v>
+      </c>
+      <c r="E102" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L102" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M102" s="19">
         <v>10.0</v>
       </c>
-      <c r="Q52" s="21">
-        <v>145.0</v>
-      </c>
-      <c r="R52" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S52" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T52" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U52" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V52" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W52" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="18">
-        <v>31.0</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="18">
-        <v>31.0</v>
-      </c>
-      <c r="E53" s="19">
-        <v>31.0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G53" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L53" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M53" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="Q53" s="21">
-        <v>150.0</v>
-      </c>
-      <c r="R53" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S53" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T53" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U53" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V53" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W53" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="18">
-        <v>32.0</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="18">
-        <v>32.0</v>
-      </c>
-      <c r="E54" s="19">
-        <v>32.0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G54" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L54" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M54" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="Q54" s="21">
-        <v>155.0</v>
-      </c>
-      <c r="R54" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S54" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T54" s="21">
-        <v>200.0</v>
-      </c>
-      <c r="U54" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V54" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W54" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="18">
-        <v>33.0</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="18">
-        <v>33.0</v>
-      </c>
-      <c r="E55" s="19">
-        <v>33.0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G55" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L55" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M55" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="Q55" s="21">
-        <v>160.0</v>
-      </c>
-      <c r="R55" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S55" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T55" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U55" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V55" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W55" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="18">
-        <v>34.0</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="18">
-        <v>34.0</v>
-      </c>
-      <c r="E56" s="19">
-        <v>34.0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G56" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L56" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M56" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="Q56" s="21">
-        <v>165.0</v>
-      </c>
-      <c r="R56" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S56" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T56" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U56" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V56" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W56" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="18">
-        <v>35.0</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="18">
-        <v>35.0</v>
-      </c>
-      <c r="E57" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G57" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L57" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M57" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="Q57" s="21">
-        <v>170.0</v>
-      </c>
-      <c r="R57" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S57" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T57" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U57" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V57" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W57" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="18">
-        <v>36.0</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="18">
-        <v>36.0</v>
-      </c>
-      <c r="E58" s="19">
-        <v>36.0</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G58" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L58" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M58" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="Q58" s="21">
-        <v>175.0</v>
-      </c>
-      <c r="R58" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S58" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T58" s="21">
-        <v>200.0</v>
-      </c>
-      <c r="U58" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V58" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W58" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="18">
-        <v>37.0</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="18">
-        <v>37.0</v>
-      </c>
-      <c r="E59" s="19">
-        <v>37.0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G59" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L59" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M59" s="17">
-        <v>7.0</v>
-      </c>
-      <c r="Q59" s="21">
-        <v>180.0</v>
-      </c>
-      <c r="R59" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S59" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T59" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U59" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V59" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W59" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="18">
-        <v>38.0</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="18">
-        <v>38.0</v>
-      </c>
-      <c r="E60" s="19">
-        <v>38.0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G60" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L60" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M60" s="17">
-        <v>8.0</v>
-      </c>
-      <c r="Q60" s="21">
-        <v>185.0</v>
-      </c>
-      <c r="R60" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S60" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T60" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U60" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V60" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W60" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="18">
-        <v>39.0</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="18">
-        <v>39.0</v>
-      </c>
-      <c r="E61" s="19">
-        <v>39.0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G61" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M61" s="17">
-        <v>9.0</v>
-      </c>
-      <c r="Q61" s="21">
-        <v>190.0</v>
-      </c>
-      <c r="R61" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S61" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T61" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U61" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V61" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W61" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="18">
-        <v>40.0</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="18">
-        <v>40.0</v>
-      </c>
-      <c r="E62" s="19">
-        <v>40.0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G62" s="22">
-        <v>1005.0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M62" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="Q62" s="21">
-        <v>195.0</v>
-      </c>
-      <c r="R62" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S62" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T62" s="21">
-        <v>200.0</v>
-      </c>
-      <c r="U62" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V62" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W62" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="17"/>
-      <c r="Q63" s="21">
-        <v>200.0</v>
-      </c>
-      <c r="R63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T63" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U63" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W63" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="17"/>
-      <c r="Q64" s="21">
-        <v>205.0</v>
-      </c>
-      <c r="R64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T64" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U64" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W64" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="17"/>
-      <c r="Q65" s="21">
-        <v>210.0</v>
-      </c>
-      <c r="R65" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S65" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T65" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="U65" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V65" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W65" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="17"/>
-      <c r="Q66" s="21">
-        <v>215.0</v>
-      </c>
-      <c r="R66" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T66" s="21">
-        <v>200.0</v>
-      </c>
-      <c r="U66" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="V66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W66" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="17"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="17"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="E103" s="26"/>
+    </row>
     <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
@@ -5454,43 +6895,43 @@
     <row r="128" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
-      <c r="R130" s="17"/>
-      <c r="S130" s="17"/>
-      <c r="T130" s="17"/>
-      <c r="U130" s="17"/>
-      <c r="V130" s="17"/>
-      <c r="W130" s="17"/>
-      <c r="X130" s="17"/>
-      <c r="Y130" s="17"/>
-      <c r="Z130" s="17"/>
-      <c r="AA130" s="17"/>
-      <c r="AB130" s="17"/>
-      <c r="AC130" s="17"/>
-      <c r="AD130" s="17"/>
+      <c r="A130" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
+      <c r="V130" s="19"/>
+      <c r="W130" s="19"/>
+      <c r="X130" s="19"/>
+      <c r="Y130" s="19"/>
+      <c r="Z130" s="19"/>
+      <c r="AA130" s="19"/>
+      <c r="AB130" s="19"/>
+      <c r="AC130" s="19"/>
+      <c r="AD130" s="19"/>
     </row>
     <row r="131" ht="15.75" customHeight="1"/>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="23" t="s">
-        <v>57</v>
+      <c r="C132" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
@@ -6616,10 +8057,10 @@
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3">
-        <v>1.6472628E9</v>
+        <v>1.6476192E9</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -6627,38 +8068,38 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>1.6472304E9</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>1.6474464E9</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>1.6472664E9</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>1.6477056E9</v>
+      </c>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3">
+        <v>64</v>
+      </c>
+      <c r="B8" s="28">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3">
+        <v>65</v>
+      </c>
+      <c r="B9" s="28">
         <v>500.0</v>
       </c>
     </row>
@@ -6666,7 +8107,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6698,88 +8139,88 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="G13" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="G13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="G14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="H14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="V14" s="18" t="s">
+      <c r="V14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" s="25" t="s">
+      <c r="Y14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" s="25" t="s">
+      <c r="Z14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="25" t="s">
+      <c r="AA14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AB14" s="25" t="s">
+      <c r="AB14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AC14" s="25" t="s">
+      <c r="AC14" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6814,41 +8255,41 @@
       <c r="K15" s="1">
         <v>20.0</v>
       </c>
-      <c r="M15" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="17">
+      <c r="M15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="19">
         <v>100.0</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="19">
         <v>2.0</v>
       </c>
-      <c r="P15" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="T15" s="18">
+      <c r="P15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="T15" s="20">
         <v>100.0</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="20">
         <v>2.0</v>
       </c>
-      <c r="V15" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="W15" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
+      <c r="V15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
@@ -6881,41 +8322,41 @@
       <c r="K16" s="1">
         <v>20.0</v>
       </c>
-      <c r="M16" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="17">
+      <c r="M16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="19">
         <v>100.0</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="19">
         <v>2.0</v>
       </c>
-      <c r="P16" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S16" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="T16" s="18">
+      <c r="P16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="T16" s="20">
         <v>100.0</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="20">
         <v>2.0</v>
       </c>
-      <c r="V16" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="W16" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
+      <c r="V16" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
@@ -6948,41 +8389,41 @@
       <c r="K17" s="1">
         <v>20.0</v>
       </c>
-      <c r="M17" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N17" s="17">
+      <c r="M17" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="19">
         <v>100.0</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="19">
         <v>2.0</v>
       </c>
-      <c r="P17" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S17" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="T17" s="18">
+      <c r="P17" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="20">
         <v>100.0</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="20">
         <v>2.0</v>
       </c>
-      <c r="V17" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="W17" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
+      <c r="V17" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
@@ -7015,41 +8456,41 @@
       <c r="K18" s="1">
         <v>20.0</v>
       </c>
-      <c r="M18" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="17">
+      <c r="M18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="19">
         <v>100.0</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="19">
         <v>2.0</v>
       </c>
-      <c r="P18" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S18" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="T18" s="18">
+      <c r="P18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="T18" s="20">
         <v>100.0</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="20">
         <v>2.0</v>
       </c>
-      <c r="V18" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="W18" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
+      <c r="V18" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
@@ -7082,41 +8523,41 @@
       <c r="K19" s="1">
         <v>20.0</v>
       </c>
-      <c r="M19" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="17">
+      <c r="M19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="19">
         <v>100.0</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <v>2.0</v>
       </c>
-      <c r="P19" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S19" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="T19" s="18">
+      <c r="P19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="T19" s="20">
         <v>100.0</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="20">
         <v>2.0</v>
       </c>
-      <c r="V19" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="W19" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
+      <c r="V19" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
@@ -7149,31 +8590,31 @@
       <c r="K20" s="1">
         <v>20.0</v>
       </c>
-      <c r="M20" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="17">
+      <c r="M20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="19">
         <v>100.0</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="19">
         <v>2.0</v>
       </c>
-      <c r="P20" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
+      <c r="P20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
@@ -7206,31 +8647,31 @@
       <c r="K21" s="1">
         <v>20.0</v>
       </c>
-      <c r="M21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="17">
+      <c r="M21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="19">
         <v>100.0</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="19">
         <v>2.0</v>
       </c>
-      <c r="P21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
+      <c r="P21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
@@ -7263,31 +8704,31 @@
       <c r="K22" s="1">
         <v>20.0</v>
       </c>
-      <c r="M22" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="17">
+      <c r="M22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="19">
         <v>100.0</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="19">
         <v>2.0</v>
       </c>
-      <c r="P22" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
+      <c r="P22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
@@ -7320,31 +8761,31 @@
       <c r="K23" s="1">
         <v>20.0</v>
       </c>
-      <c r="M23" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="17">
+      <c r="M23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="19">
         <v>100.0</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="19">
         <v>2.0</v>
       </c>
-      <c r="P23" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
+      <c r="P23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
@@ -7377,444 +8818,444 @@
       <c r="K24" s="1">
         <v>20.0</v>
       </c>
-      <c r="M24" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="17">
+      <c r="M24" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="19">
         <v>100.0</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <v>2.0</v>
       </c>
-      <c r="P24" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
+      <c r="P24" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
     </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7848,7 +9289,7 @@
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1">
         <v>1.0</v>
@@ -7862,7 +9303,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1">
         <v>0.0</v>
@@ -7904,7 +9345,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B56" s="1">
         <v>0.0</v>
@@ -8998,13 +10439,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>47</v>
@@ -9022,7 +10463,7 @@
         <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>47</v>
@@ -9040,7 +10481,7 @@
         <v>51</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>47</v>
@@ -9058,7 +10499,7 @@
         <v>51</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>47</v>
@@ -9076,7 +10517,7 @@
         <v>51</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>47</v>
@@ -9094,7 +10535,7 @@
         <v>51</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -9102,7 +10543,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -9123,7 +10564,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K3" s="1">
         <v>0.0</v>
@@ -9161,7 +10602,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K4" s="1">
         <v>0.0</v>
@@ -9199,7 +10640,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1">
         <v>0.0</v>
@@ -9237,7 +10678,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1">
         <v>0.0</v>
@@ -9275,7 +10716,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K7" s="1">
         <v>0.0</v>
@@ -9313,7 +10754,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K8" s="1">
         <v>0.0</v>
@@ -9351,7 +10792,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K9" s="1">
         <v>0.0</v>
@@ -9389,7 +10830,7 @@
         <v>0.0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K10" s="1">
         <v>0.0</v>
@@ -9427,7 +10868,7 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K11" s="1">
         <v>0.0</v>
@@ -9465,7 +10906,7 @@
         <v>0.0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K12" s="1">
         <v>0.0</v>
@@ -9503,7 +10944,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K13" s="1">
         <v>0.0</v>
@@ -9541,7 +10982,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K14" s="1">
         <v>0.0</v>
@@ -9579,7 +11020,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K15" s="1">
         <v>0.0</v>
@@ -9617,7 +11058,7 @@
         <v>0.0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K16" s="1">
         <v>0.0</v>
@@ -9655,7 +11096,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K17" s="1">
         <v>0.0</v>
@@ -9693,7 +11134,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K18" s="1">
         <v>0.0</v>
@@ -9731,7 +11172,7 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1">
         <v>0.0</v>
@@ -9769,7 +11210,7 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1">
         <v>0.0</v>
@@ -9807,7 +11248,7 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K21" s="1">
         <v>0.0</v>
@@ -9845,7 +11286,7 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K22" s="1">
         <v>0.0</v>
